--- a/test.xlsx
+++ b/test.xlsx
@@ -15,9 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Test</t>
+    <t>ANDRIANTSOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOEL</t>
+  </si>
+  <si>
+    <t>RAMIANDRISOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROMAIN</t>
   </si>
 </sst>
 </file>
@@ -353,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,9 +370,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
